--- a/DATA/SCM/OP/请购单列表-20211001-20211031.XLSX
+++ b/DATA/SCM/OP/请购单列表-20211001-20211031.XLSX
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChenK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Python\Source\KPI\DATA\SCM\OP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B061DB80-C674-43B8-A837-AB3FDF96CB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478125D5-4B3A-4220-A88F-3F5C4E17E176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25410" yWindow="660" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="60" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -5854,9 +5854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
